--- a/ClosedXML_Tests/Resource/TryToLoad/PrintareaReferencingMissingSheet.xlsx
+++ b/ClosedXML_Tests/Resource/TryToLoad/PrintareaReferencingMissingSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51ED3BF-DEE2-4532-88CA-D9941C043F68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE9AA0A-60FA-4494-A7FF-D55C4944F895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1!" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'[1]Tabelle2!'!$A$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">[1]Tabelle2!$A$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,7 +128,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Tabelle2!"/>
+      <sheetName val="Tabelle2"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
